--- a/Assets/Resources/Data/RawData/Formula.xlsx
+++ b/Assets/Resources/Data/RawData/Formula.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87136FF8-DB1D-4E52-999B-306DBAD678DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA418804-DB2C-461B-8B63-6FC8AE2EDDBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="1950" windowWidth="28740" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>配方ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,10 @@
   </si>
   <si>
     <t>住房提供人口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11001,11002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -474,7 +478,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -747,20 +751,20 @@
       <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="3">
-        <v>10000</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="D12" s="3">
         <v>10</v>
       </c>
+      <c r="E12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Formula.xlsx
+++ b/Assets/Resources/Data/RawData/Formula.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\毕业设计\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA418804-DB2C-461B-8B63-6FC8AE2EDDBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3337A597-64DF-48C8-9111-BA3D33177B07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6945" yWindow="2370" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Assets/Resources/Data/RawData/Formula.xlsx
+++ b/Assets/Resources/Data/RawData/Formula.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\毕业设计\BiShe\Assets\Resources\Data\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3337A597-64DF-48C8-9111-BA3D33177B07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42806C7-B395-4518-81F8-5EC55ECAFCE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6945" yWindow="2370" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -669,10 +669,10 @@
         <v>11001</v>
       </c>
       <c r="F8" s="3">
+        <v>50</v>
+      </c>
+      <c r="G8" s="3">
         <v>10</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -692,10 +692,10 @@
         <v>11002</v>
       </c>
       <c r="F9" s="3">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G9" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">

--- a/Assets/Resources/Data/RawData/Formula.xlsx
+++ b/Assets/Resources/Data/RawData/Formula.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42806C7-B395-4518-81F8-5EC55ECAFCE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AF885D-90DB-493E-91EF-17DA859CA8D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,7 +478,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -672,7 +672,7 @@
         <v>50</v>
       </c>
       <c r="G8" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -695,7 +695,7 @@
         <v>50</v>
       </c>
       <c r="G9" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">

--- a/Assets/Resources/Data/RawData/Formula.xlsx
+++ b/Assets/Resources/Data/RawData/Formula.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AF885D-90DB-493E-91EF-17DA859CA8D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC5D78B-37C9-4E8C-B340-1EF6463DE95A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>配方ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +140,10 @@
   </si>
   <si>
     <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -754,8 +758,8 @@
       <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="3">
-        <v>10</v>
+      <c r="D12" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>28</v>

--- a/Assets/Resources/Data/RawData/Formula.xlsx
+++ b/Assets/Resources/Data/RawData/Formula.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC5D78B-37C9-4E8C-B340-1EF6463DE95A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC584F4-A169-4824-8397-FA4CCF745AD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,10 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11001,11005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10,5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,6 +140,10 @@
   </si>
   <si>
     <t>1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12006,11005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,7 +482,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -710,10 +710,10 @@
         <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
       </c>
       <c r="E10" s="3">
         <v>11010</v>
@@ -730,13 +730,13 @@
         <v>50009</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="3">
         <v>12003</v>
@@ -753,19 +753,19 @@
         <v>50010</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G12" s="3">
         <v>1</v>

--- a/Assets/Resources/Data/RawData/Formula.xlsx
+++ b/Assets/Resources/Data/RawData/Formula.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC584F4-A169-4824-8397-FA4CCF745AD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A31F6D-1371-46B1-B643-DE35FB917CD9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>配方ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,19 +131,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11001,11002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12006,11005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,7 +478,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -710,7 +706,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -756,16 +752,16 @@
         <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" s="3">
         <v>1</v>

--- a/Assets/Resources/Data/RawData/Formula.xlsx
+++ b/Assets/Resources/Data/RawData/Formula.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A31F6D-1371-46B1-B643-DE35FB917CD9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4093FB7A-B771-4E4C-AC5C-E0AA66544E9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="2055" windowWidth="26595" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>配方ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +140,18 @@
   </si>
   <si>
     <t>11000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿井生产石头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔港生产鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -767,6 +779,52 @@
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>50011</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="3">
+        <v>12009</v>
+      </c>
+      <c r="F13" s="3">
+        <v>20</v>
+      </c>
+      <c r="G13" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>50012</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="3">
+        <v>11011</v>
+      </c>
+      <c r="F14" s="3">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/Data/RawData/Formula.xlsx
+++ b/Assets/Resources/Data/RawData/Formula.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4093FB7A-B771-4E4C-AC5C-E0AA66544E9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C65E26C-A556-4F96-AACD-1AB5CE34CF3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="2055" windowWidth="26595" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -629,7 +629,7 @@
         <v>12003</v>
       </c>
       <c r="D6" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="3">
         <v>12004</v>
@@ -658,7 +658,7 @@
         <v>11008</v>
       </c>
       <c r="F7" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7" s="3">
         <v>4</v>

--- a/Assets/Resources/Data/RawData/Formula.xlsx
+++ b/Assets/Resources/Data/RawData/Formula.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bishe\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C65E26C-A556-4F96-AACD-1AB5CE34CF3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1A2018-4574-45FF-8547-95A65B025C3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,10 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>伐木产原木</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,6 +148,10 @@
   </si>
   <si>
     <t>渔港生产鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,7 +490,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -560,7 +560,7 @@
         <v>11001</v>
       </c>
       <c r="D3" s="3">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E3" s="3">
         <v>11005</v>
@@ -583,7 +583,7 @@
         <v>11002</v>
       </c>
       <c r="D4" s="3">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3">
         <v>11005</v>
@@ -606,13 +606,13 @@
         <v>11001</v>
       </c>
       <c r="D5" s="3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3">
         <v>12006</v>
       </c>
       <c r="F5" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G5" s="3">
         <v>3</v>
@@ -629,13 +629,13 @@
         <v>12003</v>
       </c>
       <c r="D6" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3">
         <v>12004</v>
       </c>
       <c r="F6" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6" s="3">
         <v>4</v>
@@ -718,16 +718,16 @@
         <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3">
         <v>11010</v>
       </c>
       <c r="F10" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G10" s="3">
         <v>1</v>
@@ -738,13 +738,13 @@
         <v>50009</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="3">
         <v>12003</v>
@@ -761,19 +761,19 @@
         <v>50010</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G12" s="3">
         <v>1</v>
@@ -784,10 +784,10 @@
         <v>50011</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>19</v>
@@ -807,19 +807,19 @@
         <v>50012</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="3">
         <v>11011</v>
       </c>
       <c r="F14" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G14" s="3">
         <v>1</v>

--- a/Assets/Resources/Data/RawData/Formula.xlsx
+++ b/Assets/Resources/Data/RawData/Formula.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bishe\BiShe\Assets\Resources\Data\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\毕业设计\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1A2018-4574-45FF-8547-95A65B025C3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38D9C69-8845-4519-8EDE-10EED9F063B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9150" yWindow="3810" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>配方ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>原木产木料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生肉产加工肉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,6 +148,74 @@
   </si>
   <si>
     <t>15,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛皮生产衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁和肉生产肉罐头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁和鱼生产鱼罐头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石头生产建材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原木产家具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12012,11005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12012,11011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿井生产铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农田生产蔬菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11014</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,18 +551,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="4" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="12.75" customWidth="1"/>
   </cols>
@@ -556,13 +620,13 @@
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>11001</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>25</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>11005</v>
       </c>
       <c r="F3" s="3">
@@ -579,13 +643,13 @@
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>11002</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>25</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>11005</v>
       </c>
       <c r="F4" s="3">
@@ -602,13 +666,13 @@
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>11001</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>25</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>12006</v>
       </c>
       <c r="F5" s="3">
@@ -623,15 +687,15 @@
         <v>50004</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2">
         <v>12003</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>15</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>12004</v>
       </c>
       <c r="F6" s="3">
@@ -646,15 +710,15 @@
         <v>50005</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2">
         <v>11005</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>12</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>11008</v>
       </c>
       <c r="F7" s="3">
@@ -669,15 +733,15 @@
         <v>50006</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2">
         <v>11001</v>
       </c>
       <c r="F8" s="3">
@@ -692,15 +756,15 @@
         <v>50007</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2">
         <v>11002</v>
       </c>
       <c r="F9" s="3">
@@ -715,15 +779,15 @@
         <v>50008</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="3">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2">
         <v>11010</v>
       </c>
       <c r="F10" s="3">
@@ -738,15 +802,15 @@
         <v>50009</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2">
         <v>12003</v>
       </c>
       <c r="F11" s="3">
@@ -761,19 +825,19 @@
         <v>50010</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" s="3">
         <v>1</v>
@@ -784,15 +848,15 @@
         <v>50011</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="D13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2">
         <v>12009</v>
       </c>
       <c r="F13" s="3">
@@ -807,15 +871,15 @@
         <v>50012</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="2">
         <v>11011</v>
       </c>
       <c r="F14" s="3">
@@ -823,6 +887,144 @@
       </c>
       <c r="G14" s="3">
         <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>50013</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="4">
+        <v>12013</v>
+      </c>
+      <c r="D15" s="4">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2">
+        <v>12018</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>50014</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="3">
+        <v>3</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>50015</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>50016</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>50017</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="3">
+        <v>15</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>50018</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="3">
+        <v>20</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Formula.xlsx
+++ b/Assets/Resources/Data/RawData/Formula.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\毕业设计\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38D9C69-8845-4519-8EDE-10EED9F063B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410279B3-AC23-4DEA-BF13-86ECD42A2F55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9150" yWindow="3810" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7725" yWindow="4140" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>配方ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,6 +216,14 @@
   </si>
   <si>
     <t>11014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面粉生产馒头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11019</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -259,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -271,6 +279,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -551,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1027,6 +1038,29 @@
         <v>2</v>
       </c>
     </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>50019</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="5">
+        <v>12006</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="3">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/Data/RawData/Formula.xlsx
+++ b/Assets/Resources/Data/RawData/Formula.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\毕业设计\BiShe\Assets\Resources\Data\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410279B3-AC23-4DEA-BF13-86ECD42A2F55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE070E3-7985-405B-AAA1-116980D89C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7725" yWindow="4140" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
   <si>
     <t>配方ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产品数量（吨/周）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生产时长（周）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生肉产加工肉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>田地产小麦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,10 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>毛皮生产衣服</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,10 +151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>石头生产建材</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>原木产家具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,10 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>矿井生产铁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12012</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -224,6 +204,66 @@
   </si>
   <si>
     <t>11019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品数量（吨）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小麦生产毛皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生肉产腊肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石头生产石材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿井生产生铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生铁生产铁块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -247,12 +287,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -267,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -281,6 +333,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -595,10 +656,10 @@
         <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -609,19 +670,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -629,22 +690,22 @@
         <v>50001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2">
-        <v>11001</v>
-      </c>
-      <c r="D3" s="2">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E3" s="2">
         <v>11005</v>
       </c>
       <c r="F3" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -657,31 +718,31 @@
       <c r="C4" s="2">
         <v>11002</v>
       </c>
-      <c r="D4" s="2">
-        <v>25</v>
+      <c r="D4" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E4" s="2">
         <v>11005</v>
       </c>
       <c r="F4" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G4" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>50003</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C5" s="2">
         <v>11001</v>
       </c>
-      <c r="D5" s="2">
-        <v>25</v>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E5" s="2">
         <v>12006</v>
@@ -690,27 +751,27 @@
         <v>15</v>
       </c>
       <c r="G5" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>50004</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>35</v>
+      <c r="B6" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C6" s="2">
         <v>12003</v>
       </c>
-      <c r="D6" s="2">
-        <v>15</v>
+      <c r="D6" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="E6" s="2">
         <v>12004</v>
       </c>
       <c r="F6" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G6" s="3">
         <v>4</v>
@@ -720,23 +781,23 @@
       <c r="A7" s="3">
         <v>50005</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
+      <c r="B7" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="C7" s="2">
         <v>11005</v>
       </c>
-      <c r="D7" s="2">
-        <v>12</v>
+      <c r="D7" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="E7" s="2">
         <v>11008</v>
       </c>
       <c r="F7" s="3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G7" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -744,22 +805,22 @@
         <v>50006</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2">
         <v>11001</v>
       </c>
       <c r="F8" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G8" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -767,45 +828,45 @@
         <v>50007</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2">
         <v>11002</v>
       </c>
       <c r="F9" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G9" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>50008</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>20</v>
+      <c r="B10" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E10" s="2">
         <v>11010</v>
       </c>
       <c r="F10" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G10" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -813,22 +874,22 @@
         <v>50009</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2">
         <v>12003</v>
       </c>
       <c r="F11" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -836,19 +897,19 @@
         <v>50010</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G12" s="3">
         <v>1</v>
@@ -859,13 +920,13 @@
         <v>50011</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E13" s="2">
         <v>12009</v>
@@ -874,7 +935,7 @@
         <v>20</v>
       </c>
       <c r="G13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -882,13 +943,13 @@
         <v>50012</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2">
         <v>11011</v>
@@ -897,21 +958,21 @@
         <v>15</v>
       </c>
       <c r="G14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>50013</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
+      <c r="B15" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="C15" s="4">
         <v>12013</v>
       </c>
-      <c r="D15" s="4">
-        <v>10</v>
+      <c r="D15" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="E15" s="2">
         <v>12018</v>
@@ -920,27 +981,27 @@
         <v>2</v>
       </c>
       <c r="G15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>50014</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="F16" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G16" s="3">
         <v>2</v>
@@ -950,20 +1011,20 @@
       <c r="A17" s="3">
         <v>50015</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="F17" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G17" s="3">
         <v>2</v>
@@ -973,23 +1034,23 @@
       <c r="A18" s="3">
         <v>50016</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F18" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G18" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -997,22 +1058,22 @@
         <v>50017</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F19" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G19" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1020,45 +1081,91 @@
         <v>50018</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F20" s="3">
         <v>20</v>
       </c>
       <c r="G20" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>50019</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>48</v>
+      <c r="B21" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C21" s="5">
         <v>12006</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F21" s="3">
         <v>5</v>
       </c>
       <c r="G21" s="3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>50020</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="3">
+        <v>16</v>
+      </c>
+      <c r="G22" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>50021</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="3">
+        <v>40</v>
+      </c>
+      <c r="G23" s="3">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Formula.xlsx
+++ b/Assets/Resources/Data/RawData/Formula.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE070E3-7985-405B-AAA1-116980D89C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE085501-E349-4118-B4A2-86AC41644913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -626,7 +626,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -886,7 +886,7 @@
         <v>12003</v>
       </c>
       <c r="F11" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G11" s="3">
         <v>2</v>

--- a/Assets/Resources/Data/RawData/Formula.xlsx
+++ b/Assets/Resources/Data/RawData/Formula.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE085501-E349-4118-B4A2-86AC41644913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF17211-0F39-4350-9B94-8DC6D9D96064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,14 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12012,11005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12012,11011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12009</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -264,6 +256,14 @@
   </si>
   <si>
     <t>生铁生产铁块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12020,11005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12020,11011</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -626,7 +626,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -656,7 +656,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
@@ -693,10 +693,10 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2">
         <v>11005</v>
@@ -719,7 +719,7 @@
         <v>11002</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2">
         <v>11005</v>
@@ -742,7 +742,7 @@
         <v>11001</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2">
         <v>12006</v>
@@ -765,7 +765,7 @@
         <v>12003</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2">
         <v>12004</v>
@@ -782,13 +782,13 @@
         <v>50005</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2">
         <v>11005</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2">
         <v>11008</v>
@@ -857,7 +857,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2">
         <v>11010</v>
@@ -972,7 +972,7 @@
         <v>12013</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E15" s="2">
         <v>12018</v>
@@ -992,13 +992,13 @@
         <v>29</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F16" s="3">
         <v>5</v>
@@ -1015,13 +1015,13 @@
         <v>30</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="F17" s="3">
         <v>5</v>
@@ -1035,16 +1035,16 @@
         <v>50016</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F18" s="3">
         <v>20</v>
@@ -1058,7 +1058,7 @@
         <v>50017</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>16</v>
@@ -1067,7 +1067,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F19" s="3">
         <v>20</v>
@@ -1081,7 +1081,7 @@
         <v>50018</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>16</v>
@@ -1090,7 +1090,7 @@
         <v>16</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F20" s="3">
         <v>20</v>
@@ -1104,16 +1104,16 @@
         <v>50019</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" s="5">
         <v>12006</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F21" s="3">
         <v>5</v>
@@ -1127,16 +1127,16 @@
         <v>50020</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="F22" s="3">
         <v>16</v>
@@ -1150,16 +1150,16 @@
         <v>50021</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="F23" s="3">
         <v>40</v>

--- a/Assets/Resources/Data/RawData/Formula.xlsx
+++ b/Assets/Resources/Data/RawData/Formula.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF17211-0F39-4350-9B94-8DC6D9D96064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9134BE-38AA-4EE8-8757-3EC76F7B2632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
   <si>
     <t>配方ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,6 +264,14 @@
   </si>
   <si>
     <t>12020,11011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果园生产水果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11021</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -623,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1168,6 +1176,29 @@
         <v>8</v>
       </c>
     </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>50022</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="3">
+        <v>30</v>
+      </c>
+      <c r="G24" s="3">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/Data/RawData/Formula.xlsx
+++ b/Assets/Resources/Data/RawData/Formula.xlsx
@@ -213,11 +213,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -228,49 +228,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -282,7 +243,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,26 +272,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,19 +287,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -358,6 +311,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -393,13 +393,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,169 +573,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,6 +584,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -596,11 +635,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,56 +665,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,10 +690,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -702,133 +702,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1183,8 +1183,8 @@
   <sheetPr/>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1559,18 +1559,18 @@
         <v>2.5</v>
       </c>
       <c r="I9" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="M9">
         <v>2.5</v>
